--- a/gabarits/Rx_stat_gen1.xlsx
+++ b/gabarits/Rx_stat_gen1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\INESSS-QC_inesss\gabarits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AFCF17-E28C-4B8D-B2A5-5CCC80BC7FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DABF049-3C28-471A-9B67-B6B35229701D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="105" windowWidth="15420" windowHeight="14835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nom1" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Codes</t>
   </si>
@@ -88,15 +88,9 @@
     <t>CategorieListe</t>
   </si>
   <si>
-    <t>2020-10-09</t>
-  </si>
-  <si>
     <t>DENOM</t>
   </si>
   <si>
-    <t>456132</t>
-  </si>
-  <si>
     <t>MNT_MED</t>
   </si>
   <si>
@@ -137,13 +131,28 @@
   </si>
   <si>
     <t>qte_med</t>
+  </si>
+  <si>
+    <t>MARQ_COMRC</t>
+  </si>
+  <si>
+    <t>123-456-465</t>
+  </si>
+  <si>
+    <t>mike est nice!</t>
+  </si>
+  <si>
+    <t>michèle est nice</t>
+  </si>
+  <si>
+    <t>toute le monde est nice!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,12 +167,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -490,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625CDBC5-B78D-437A-AB73-3E1C625A1AE0}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,59 +529,74 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43830</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>32874</v>
+      </c>
+      <c r="B3" s="1">
+        <v>33238</v>
+      </c>
+      <c r="D3">
+        <v>456</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -588,16 +606,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5619DCB-7E86-4A73-8508-A29A29F60AD4}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -637,19 +658,28 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>43831</v>
+        <v>32874</v>
       </c>
       <c r="C2" s="1">
-        <v>44196</v>
+        <v>33238</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -659,21 +689,26 @@
       <c r="C3" s="1">
         <v>36526</v>
       </c>
-      <c r="E3">
-        <v>159</v>
-      </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
